--- a/Parabank/Input data/InputData.xlsx
+++ b/Parabank/Input data/InputData.xlsx
@@ -102,7 +102,7 @@
     <t>"332-25-45617"</t>
   </si>
   <si>
-    <t>Rahul@347</t>
+    <t>Rahul@47</t>
   </si>
 </sst>
 </file>

--- a/Parabank/Input data/InputData.xlsx
+++ b/Parabank/Input data/InputData.xlsx
@@ -102,7 +102,7 @@
     <t>"332-25-45617"</t>
   </si>
   <si>
-    <t>Rahul@47</t>
+    <t>Rahul@42941</t>
   </si>
 </sst>
 </file>
